--- a/static/Media/SampleExcels/examtype.xlsx
+++ b/static/Media/SampleExcels/examtype.xlsx
@@ -24,18 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>school_code</t>
+    <t>TypeName</t>
   </si>
   <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>passingmarks</t>
-  </si>
-  <si>
-    <t>Typeid</t>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -360,48 +354,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E9" activeCellId="1" sqref="A2 E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>